--- a/Day1 Hw.xlsx
+++ b/Day1 Hw.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db73b0b2ebbdde70/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\my pc\Desktop\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{0DD9B128-69D0-4984-A5B6-BFD0A0BAB04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AD1B1DD-F2A0-4A14-8F16-EA7E4421D792}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01528B23-BD95-4B2A-937C-E07AFFDEE195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{33EA2B32-4FB8-45D4-B6E1-A280310C72D9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{33EA2B32-4FB8-45D4-B6E1-A280310C72D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -666,7 +666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2189BA6F-EB5E-4386-B208-7198DD556A8E}">
   <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -4877,7 +4877,7 @@
   <dimension ref="A1:AC39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6233,7 +6233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE13B39E-B2DF-436D-9A04-32E67B2B84BA}">
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
